--- a/Scenario_difference_file_template.xlsx
+++ b/Scenario_difference_file_template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steub\surfdrive\Leiden\python\notebooks\future_scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steub\surfdrive\Leiden\01 - Publications\08 - Superstructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7122FE0E-1631-4E3A-B915-BE3BB767468C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A4149E-8549-46D6-8F36-FD9FA1BF4D50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="-336" windowWidth="16356" windowHeight="13296" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1044" yWindow="-26028" windowWidth="45360" windowHeight="26136" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="5" r:id="rId1"/>
     <sheet name="Information" sheetId="2" r:id="rId2"/>
+    <sheet name="example" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>to activity name</t>
   </si>
@@ -94,9 +95,6 @@
     <t>As an alternative to entering the metadata (name, reference product, etc.) the to/from activity keys can be entered.</t>
   </si>
   <si>
-    <t>Exchange values; each column represents one scenario; row 2 contains the scenario names; row 3-x contains the exchange values</t>
-  </si>
-  <si>
     <t>market for natural gas, high pressure</t>
   </si>
   <si>
@@ -115,76 +113,104 @@
     <t>US-NPCC</t>
   </si>
   <si>
-    <t>ei37_cutoff_IMAGE_SSP2</t>
-  </si>
-  <si>
-    <t>('ei37_cutoff_IMAGE_SSP2', '2a797c0fc99de38fab5c4a0d4e1ec338')</t>
-  </si>
-  <si>
-    <t>('ei37_cutoff_IMAGE_SSP2', '0020ab99d3618c7fc4208a26c38383e9')</t>
-  </si>
-  <si>
-    <t>Manganese</t>
-  </si>
-  <si>
     <t>('air', 'non-urban air or from high stacks')</t>
   </si>
   <si>
     <t>biosphere3</t>
   </si>
   <si>
-    <t>('biosphere3', '2460f868-54a9-404c-bec8-c809a44ae72c')</t>
-  </si>
-  <si>
     <t>example intermediate flow</t>
   </si>
   <si>
     <t>example elementary flow</t>
   </si>
   <si>
-    <t>Purpose is to enable scenario LCA</t>
-  </si>
-  <si>
-    <t>How it works</t>
-  </si>
-  <si>
-    <t>This spreadsheet can be imported in the Activity Browser LCA software to use alternative intermediate and elementary flow values during LCA calculations. Practically, this can be used to perform scenario LCA, where each column of values represents one scenario. What these scenarios represent is up to you. Scenarios can be anything from just one flow value modified to many (even all flow values in an LCA database) modified.</t>
-  </si>
-  <si>
-    <t>Flow from…</t>
-  </si>
-  <si>
     <t>… to</t>
   </si>
   <si>
-    <t>In the data sheet, the first few columns identify the "from" part of a flow and the next few columns identify the "to" part of a flow. The columns after that specify the values that a flow has in different scenarios. For elementary flows slightly different information is required than for intermediate flows (see below). At least one scenario (column) needs to be entered. The header of that column should contain the scenario name. There must be a value for each exchange in each scenario (that is the values table must be completely filled). Note also the first row in the data sheet (in grey) will be ignored.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a template spreadsheet for storing scenario data, i.e. alternative values for elementary and intermediate flows in an LCA database. </t>
-  </si>
-  <si>
     <t>Why is it called "scenario difference file"?</t>
   </si>
   <si>
-    <t>The name "scenario difference file" relates to the fact that in this file only the data (intermediate and elementary flows) that DIFFER between scenarios is stored.</t>
+    <t>Flow from …</t>
+  </si>
+  <si>
+    <t>SSP2 2020</t>
+  </si>
+  <si>
+    <t>SSP2-450 2020</t>
+  </si>
+  <si>
+    <t>SSP2 2050</t>
+  </si>
+  <si>
+    <t>SSP2-450 2050</t>
+  </si>
+  <si>
+    <t>Part a) Exchange identification</t>
+  </si>
+  <si>
+    <t>Part b) Exchange values</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>ei37_cutoff_IMAGE_SSP2_SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailed information can be found in the following paper: Steubing B, Koning DG (submitted) Making the use of scenarios in LCA easier: the superstructure approach </t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>This Excel spreadsheet is a "Scenario Difference File"</t>
+  </si>
+  <si>
+    <t>The Scenario Difference File (SDF) stores alternative values for elementary and intermediate flows in an LCA database. It can be used for scenario analysis or simply for calculating LCAs with different flow values as defined in this spreadsheet. The SDF can be imported in the Activity Browser LCA software when the "Scenario LCA" option is chosen in the LCA Setup tab. In the SDF "data" sheet , each column of values represents one scenario. What these scenarios represent is up to you. Scenarios can be anything from just one flow value modified to many (even all flow values in an LCA database) modified.</t>
+  </si>
+  <si>
+    <t>How it works (see also the "example" sheet)</t>
+  </si>
+  <si>
+    <t>Red text is not part of the SDF (for better explanation only); when using this as a template to make scenarios yourself, delete the A column and the first 3 rows</t>
+  </si>
+  <si>
+    <t>In the "data" sheet, the first few columns identify the "from" part of a flow and the next few columns identify the "to" part of a flow. The columns after that specify the values that a flow has in different scenarios. For elementary flows slightly different information is required than for intermediate flows (see below). At least one scenario (column) needs to be entered. The header of that column should contain the scenario name. There must be a value for each exchange in each scenario (that is the values table must be completely filled). Note also the first row in the data sheet (in grey) will be ignored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name "scenario difference file" relates to the fact that in this file only the data (intermediate and elementary flows) that DIFFER between scenarios is stored. Flows that do not change across scenarios can be stored in the LCI database itself. </t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>flow type</t>
+  </si>
+  <si>
+    <t>Specifies if a flows is a technosphere flow, a biosphere flow (or a "production" flow, which in brightway means that it is treated as a positive number in the technology matrix)</t>
+  </si>
+  <si>
+    <t>technosphere</t>
+  </si>
+  <si>
+    <t>biosphere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,8 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,13 +234,41 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,12 +295,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -256,8 +305,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -266,24 +357,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -335,79 +408,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,180 +865,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C526C4-ACDF-44DF-8B51-EBB074DB7E1F}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="9.6640625" style="9" customWidth="1"/>
+    <col min="5" max="9" width="8.88671875" style="9"/>
+    <col min="10" max="10" width="9.77734375" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>0.18308541305266879</v>
-      </c>
-      <c r="N3">
-        <v>0.15002591885280589</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="15">
-        <v>5.5765985961712406E-10</v>
-      </c>
-      <c r="N4" s="15">
-        <v>4.5696394623376158E-10</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="M1" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -870,265 +935,809 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="121.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:18" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="106.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7699F2C2-A046-4D90-A75E-E28AEBCF2F28}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:U37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="9" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
+    </row>
+    <row r="3" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24"/>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="72.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="106.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="T4" s="28"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.18308541305266901</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.18240456828593191</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="R5" s="14">
+        <v>0.15002591885280589</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0.1467425429964212</v>
+      </c>
+      <c r="T5" s="13"/>
+    </row>
+    <row r="6" spans="1:21" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="37">
+        <v>0.38129368122348789</v>
+      </c>
+      <c r="P6" s="37">
+        <v>0.37987575391228168</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="39">
+        <v>0.31244397860285339</v>
+      </c>
+      <c r="S6" s="39">
+        <v>0.30560602004434662</v>
+      </c>
+      <c r="T6" s="30"/>
+      <c r="U6" s="29"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A8:H8"/>
+  <mergeCells count="5">
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="B2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>